--- a/Data Extraction And Loading/Import Files/Retail Item/WorkingXLS/Retail Item-215 Cold Beverage_01.xlsx
+++ b/Data Extraction And Loading/Import Files/Retail Item/WorkingXLS/Retail Item-215 Cold Beverage_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Speedway-Source\Data Extraction And Loading\Import Files\Retail Item\WorkingXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CB6035A-C7AB-4332-9C91-AB974EA503C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB78DA73-193C-4C4F-B352-1700FE341570}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item Template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="131">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -295,85 +295,124 @@
     <t>n</t>
   </si>
   <si>
-    <t>STRAW GIANT PAPER WRPD 10.25IN</t>
+    <t>RD BULL STRAWBERRY FREEZE</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>215 21 002 Cafe Smoothie</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Use Category Setting</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t>Food Service and Technology</t>
+  </si>
+  <si>
+    <t>Dispensed Beverages</t>
+  </si>
+  <si>
+    <t>1125209-1</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>_91125209</t>
+  </si>
+  <si>
+    <t>Transfer Group</t>
+  </si>
+  <si>
+    <t>RD BULL TROPICAL FREEZE</t>
+  </si>
+  <si>
+    <t>1125210-1</t>
+  </si>
+  <si>
+    <t>_91125210</t>
+  </si>
+  <si>
+    <t>EL NINO AF GUAVA 1/2 GAL</t>
+  </si>
+  <si>
+    <t>215 02 001 Supply Perishable</t>
+  </si>
+  <si>
+    <t>SUNNY SKY PRODUCTS</t>
+  </si>
+  <si>
+    <t>Default Strategy</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>EL NINO AF JAMAICA 1/2 GAL</t>
+  </si>
+  <si>
+    <t>EL NINO AF LIMONADA 1/2 GAL</t>
+  </si>
+  <si>
+    <t>EL NINO AF MANGO 1/2 GAL</t>
+  </si>
+  <si>
+    <t>EL NINO AF MELON 1/2 GAL</t>
+  </si>
+  <si>
+    <t>EL NINO AF PINEAPPLE 1/2 GAL</t>
+  </si>
+  <si>
+    <t>EL NINO  AF TAMARINDO 1/2 GAL</t>
+  </si>
+  <si>
+    <t>EL NINO HORCHATA LIQ 1/2 GAL</t>
+  </si>
+  <si>
+    <t>AGUA FRESCA 20z</t>
+  </si>
+  <si>
+    <t>215 02 002 Fountain Drinks</t>
+  </si>
+  <si>
+    <t>37003385-1</t>
+  </si>
+  <si>
+    <t>_937003385</t>
+  </si>
+  <si>
+    <t>AF CUPS 20z 1000ct</t>
   </si>
   <si>
     <t>215 02 000 Supply</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Use Category Setting</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Each</t>
-  </si>
-  <si>
-    <t>Default Strategy</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>Transfer Group</t>
-  </si>
-  <si>
-    <t>SLUSH PUPPIE SMALL</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>215 05 000 Acquisition Cld Bev</t>
-  </si>
-  <si>
-    <t>Food Service and Technology</t>
-  </si>
-  <si>
-    <t>Dispensed Beverages</t>
-  </si>
-  <si>
-    <t>1124693-1</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>_91124693</t>
-  </si>
-  <si>
-    <t>BIB BARRILITOS AQUA FRSCA PEAR/C 2.5</t>
-  </si>
-  <si>
-    <t>215 02 001 Supply Perishable</t>
-  </si>
-  <si>
-    <t>Coca Cola</t>
-  </si>
-  <si>
-    <t>BIB BARRILITOS AQUA FRSC MNGO LM 2.5</t>
-  </si>
-  <si>
-    <t>BIB BARRILITOS AQUA FRSC STW/HIB 2.5</t>
-  </si>
-  <si>
-    <t>BIB BARRILITOS AQUA FRSCA PNAPLE 2.5</t>
-  </si>
-  <si>
-    <t>BIB FCB PEPSI FRTWRKS WTRM LMNDE</t>
+    <t>AF COMMON FLAT LIDS 14-20z 1000ct</t>
+  </si>
+  <si>
+    <t>JOLLY RANCHER GREEN APPLE FCB 3GAL</t>
   </si>
   <si>
     <t>215 03 001 Supply Perishable</t>
   </si>
   <si>
-    <t>QTG PEPSICO BNB</t>
+    <t>Sunny Sky</t>
+  </si>
+  <si>
+    <t>Elite</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DI10"/>
+  <dimension ref="A1:DI17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -1590,36 +1629,36 @@
       <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
-    <col min="35" max="35" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" customWidth="1"/>
     <col min="39" max="39" width="12" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" style="15"/>
-    <col min="43" max="43" width="19.33203125" style="13" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="15.6640625" style="6" customWidth="1"/>
-    <col min="46" max="103" width="15.6640625" customWidth="1"/>
-    <col min="104" max="113" width="19.21875" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" style="15"/>
+    <col min="43" max="43" width="19.28515625" style="13" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" style="6" customWidth="1"/>
+    <col min="46" max="103" width="15.7109375" customWidth="1"/>
+    <col min="104" max="113" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="25"/>
       <c r="C1" s="34" t="s">
@@ -1746,7 +1785,7 @@
       <c r="DH1" s="32"/>
       <c r="DI1" s="33"/>
     </row>
-    <row r="2" spans="1:113" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:113" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -1951,7 +1990,7 @@
       <c r="DH2" s="27"/>
       <c r="DI2" s="28"/>
     </row>
-    <row r="3" spans="1:113" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:113" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="3"/>
@@ -2270,9 +2309,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>37003163</v>
+        <v>1125209</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -2281,544 +2320,1119 @@
         <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO4">
+        <v>3.99</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1125210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
         <v>92</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" t="s">
         <v>93</v>
       </c>
-      <c r="K4" t="s">
+      <c r="G5" t="s">
         <v>94</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K5" t="s">
         <v>95</v>
       </c>
-      <c r="M4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="L5" t="s">
         <v>96</v>
       </c>
-      <c r="T4" t="s">
+      <c r="M5" t="s">
         <v>96</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="N5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" t="s">
         <v>97</v>
       </c>
-      <c r="AF4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="T5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE5" t="s">
         <v>98</v>
       </c>
-      <c r="AL4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1124693</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="AF5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG5" t="s">
         <v>96</v>
       </c>
-      <c r="T5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>95</v>
-      </c>
       <c r="AH5" t="s">
         <v>90</v>
       </c>
       <c r="AK5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN5" t="s">
         <v>105</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" s="15">
+        <v>3.99</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AO5" s="15">
-        <v>1.59</v>
-      </c>
-      <c r="AP5" t="s">
+      <c r="CZ5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>37003375</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
         <v>107</v>
       </c>
-      <c r="AQ5" s="13" t="s">
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
         <v>108</v>
       </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO6" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ6" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>37003312</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>37003376</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s">
         <v>109</v>
       </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE7" t="s">
         <v>110</v>
       </c>
-      <c r="G6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="AF7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO7" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>37003377</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="s">
         <v>94</v>
       </c>
-      <c r="L6" t="s">
+      <c r="I8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO8" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>37003378</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
         <v>95</v>
       </c>
-      <c r="N6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" t="s">
-        <v>90</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="L9" t="s">
         <v>96</v>
       </c>
-      <c r="T6" t="s">
+      <c r="M9" t="s">
         <v>96</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" t="s">
         <v>97</v>
       </c>
-      <c r="AF6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="T9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>37003379</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S10" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO10" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ10" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>37003380</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>37003381</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="s">
+        <v>90</v>
+      </c>
+      <c r="S12" t="s">
+        <v>97</v>
+      </c>
+      <c r="T12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>37003382</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S13" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ13" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>37003385</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>90</v>
+      </c>
+      <c r="S14" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE14" t="s">
         <v>98</v>
       </c>
-      <c r="AL6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO6" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ6" s="13" t="s">
+      <c r="AF14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="s">
         <v>99</v>
       </c>
-      <c r="CZ6" t="s">
-        <v>100</v>
+      <c r="AN14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO14" s="15">
+        <v>1.89</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ14" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>37003313</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>37003386</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="s">
+        <v>90</v>
+      </c>
+      <c r="S15" t="s">
+        <v>97</v>
+      </c>
+      <c r="T15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO15" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ15" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="CZ15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>37003387</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16" t="s">
+        <v>97</v>
+      </c>
+      <c r="T16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE16" t="s">
         <v>110</v>
       </c>
-      <c r="G7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="AF16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1125344</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
         <v>94</v>
       </c>
-      <c r="L7" t="s">
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" t="s">
         <v>95</v>
       </c>
-      <c r="M7" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P7" t="s">
-        <v>90</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="L17" t="s">
         <v>96</v>
       </c>
-      <c r="T7" t="s">
+      <c r="M17" t="s">
         <v>96</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="N17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s">
+        <v>90</v>
+      </c>
+      <c r="S17" t="s">
         <v>97</v>
       </c>
-      <c r="AF7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO7" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ7" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>37003314</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="T17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE17" t="s">
         <v>110</v>
       </c>
-      <c r="G8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" t="s">
-        <v>95</v>
-      </c>
-      <c r="N8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" t="s">
-        <v>90</v>
-      </c>
-      <c r="S8" t="s">
-        <v>96</v>
-      </c>
-      <c r="T8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO8" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ8" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>37003315</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" t="s">
-        <v>90</v>
-      </c>
-      <c r="S9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO9" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ9" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1124916</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" t="s">
-        <v>95</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S10" t="s">
-        <v>96</v>
-      </c>
-      <c r="T10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO10" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ10" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ10" t="s">
-        <v>100</v>
+      <c r="AF17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO17" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ17" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
